--- a/extracteds/Cases/Terca-Quarta.xlsx
+++ b/extracteds/Cases/Terca-Quarta.xlsx
@@ -162,7 +162,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, desde que a ultima sexta-feira tenha tido uma </t>
+      <t xml:space="preserve">, desde que o pregão anterior a terça tenha tido uma </t>
     </r>
     <r>
       <rPr>
@@ -181,7 +181,9 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(Variação maior que essa, ex: -3%, não fazer nada!)</t>
+      <t xml:space="preserve">(Variação maior que essa, ex: 
+-3%, não fazer nada!)
+Alterar: caseSegundaTerca(Sexta).py</t>
     </r>
   </si>
 </sst>
@@ -231,13 +233,12 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,7 +670,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A22" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1287,19 +1288,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>258</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>36</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>28</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
       <c r="F17" s="4">
@@ -1317,10 +1318,10 @@
       <c r="J17" s="4">
         <v>2.0380434782608647e-002</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="3">
         <v>129600</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="3">
         <v>583751.55038759694</v>
       </c>
     </row>
@@ -1574,126 +1575,126 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="30">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
     </row>
     <row r="31">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
     </row>
     <row r="37">
       <c r="F37" s="2"/>
@@ -1809,7 +1810,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>